--- a/lib/specialist_data.xlsx
+++ b/lib/specialist_data.xlsx
@@ -455,11 +455,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -468,11 +468,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -481,11 +481,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -494,11 +494,11 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -520,11 +520,11 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -585,11 +585,11 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -598,11 +598,11 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -637,11 +637,11 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -650,11 +650,11 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -663,11 +663,11 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -676,11 +676,11 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -702,11 +702,11 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -715,11 +715,11 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -780,11 +780,11 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -793,11 +793,11 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -806,11 +806,11 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -819,11 +819,11 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -832,11 +832,11 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -858,11 +858,11 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -897,11 +897,11 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -923,11 +923,11 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -936,11 +936,11 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -949,11 +949,11 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -975,11 +975,11 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1001,11 +1001,11 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1014,11 +1014,11 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1053,11 +1053,11 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1079,11 +1079,11 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1105,11 +1105,11 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1118,11 +1118,11 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1157,11 +1157,11 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1170,11 +1170,11 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1183,11 +1183,11 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1196,11 +1196,11 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1235,11 +1235,11 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1248,11 +1248,11 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1274,11 +1274,11 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1300,11 +1300,11 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1313,11 +1313,11 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1365,11 +1365,11 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1378,11 +1378,11 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1391,11 +1391,11 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1404,11 +1404,11 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1430,11 +1430,11 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1456,11 +1456,11 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1469,11 +1469,11 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1482,11 +1482,11 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1508,11 +1508,11 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1521,11 +1521,11 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1534,11 +1534,11 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1547,11 +1547,11 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1573,11 +1573,11 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1586,11 +1586,11 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1612,11 +1612,11 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1625,11 +1625,11 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1664,11 +1664,11 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1677,11 +1677,11 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1703,11 +1703,11 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1768,11 +1768,11 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1781,11 +1781,11 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1794,11 +1794,11 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1807,11 +1807,11 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1820,11 +1820,11 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1833,11 +1833,11 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1846,11 +1846,11 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1859,11 +1859,11 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1872,11 +1872,11 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1885,11 +1885,11 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -1911,11 +1911,11 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -1924,11 +1924,11 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1937,11 +1937,11 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1950,11 +1950,11 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1963,11 +1963,11 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -1976,11 +1976,11 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -1989,11 +1989,11 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2002,11 +2002,11 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2028,11 +2028,11 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2041,11 +2041,11 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2067,11 +2067,11 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2080,11 +2080,11 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2106,11 +2106,11 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2158,11 +2158,11 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2171,11 +2171,11 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2184,11 +2184,11 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2197,11 +2197,11 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2210,11 +2210,11 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2223,11 +2223,11 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2236,11 +2236,11 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2249,11 +2249,11 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2262,11 +2262,11 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2275,11 +2275,11 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2314,11 +2314,11 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2353,11 +2353,11 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2366,11 +2366,11 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2379,11 +2379,11 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2405,11 +2405,11 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2431,11 +2431,11 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2444,11 +2444,11 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2496,11 +2496,11 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2509,11 +2509,11 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2535,11 +2535,11 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2574,11 +2574,11 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2587,11 +2587,11 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2613,11 +2613,11 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2639,11 +2639,11 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2652,11 +2652,11 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2665,11 +2665,11 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2678,11 +2678,11 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2691,11 +2691,11 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2704,11 +2704,11 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2717,11 +2717,11 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2730,11 +2730,11 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2743,11 +2743,11 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -2821,11 +2821,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -2847,11 +2847,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2860,11 +2860,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -2886,11 +2886,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -2925,11 +2925,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -2951,11 +2951,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2964,11 +2964,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>Nurse</t>
         </is>
       </c>
     </row>
@@ -2977,11 +2977,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -2990,11 +2990,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>General Doctor</t>
+          <t>Cardiologist</t>
         </is>
       </c>
     </row>
@@ -3003,11 +3003,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cardiologist</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -3016,11 +3016,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Nurse</t>
+          <t>General Doctor</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
